--- a/population-time-progression/src/main/resources/mortality_tables/RSFSR/RSFSR-MortalityRates-ADH.xlsx
+++ b/population-time-progression/src/main/resources/mortality_tables/RSFSR/RSFSR-MortalityRates-ADH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\population-time-progression\src\main\resources\mortality_tables\RSFSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E07FA7-601F-422B-8744-B79E07571209}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F739FDD-FFBB-4E37-A78A-13714FB17651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="2" xr2:uid="{766AE3CE-855B-4024-BC78-E28714A6AB15}"/>
+    <workbookView xWindow="2535" yWindow="8865" windowWidth="28980" windowHeight="13020" xr2:uid="{766AE3CE-855B-4024-BC78-E28714A6AB15}"/>
   </bookViews>
   <sheets>
     <sheet name="Comment" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Е.М.Андреев, Л.Е.Дарский, Т.Л. Харькова, "Демографическая история России : 1927-1959", НИИ статистики Госкомстата России, Отделение демографии, М. 1998, 167-170</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Возрастные коэффициенты смертности РСФСР (промилле) по АДХ:</t>
+  </si>
+  <si>
+    <t>Величины приведены в формате "mx", а не "qx" (уточнено в переписке с Е.М. Андреевым).</t>
   </si>
 </sst>
 </file>
@@ -472,9 +475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59326FF-4098-4940-B01A-41D42783F94B}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -486,6 +491,11 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2232,7 +2242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B86946-7746-460C-9ECB-D0E92C2546D8}">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
